--- a/va_facility_data_2025-02-20/Scott County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Scott%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Scott County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Scott%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R733fd89cd83b42db8a95cefe03d434aa"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R64ff9e5bf3284aaead52da251e68378a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb1b75e27d7b743caad16c4d3647afe64"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R8a2fae2ddba64bba8fe87797c2c2e925"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R047c18c5b4684b7bb117114633e415fa"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfd6e51f77b014125bcc4c2130fef0848"/>
   </x:sheets>
 </x:workbook>
 </file>
